--- a/islands.eng.xlsx
+++ b/islands.eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\sotbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284A576-0B88-4D8E-A3A9-1C22DB588E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518CA5BF-442F-4732-830F-CD9E2A5BB3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="6015" windowWidth="21600" windowHeight="11385" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
+    <workbookView xWindow="28680" yWindow="3960" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="187">
   <si>
     <t>Cannon Cove</t>
   </si>
@@ -528,12 +528,6 @@
   </si>
   <si>
     <t>H-17</t>
-  </si>
-  <si>
-    <t>Old Boot Fort</t>
-  </si>
-  <si>
-    <t>L-14</t>
   </si>
   <si>
     <t>The Crow's Nest Fortress</t>
@@ -969,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6851CCB6-8444-484D-BD9F-A7B9156DF748}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection sqref="A1:C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,13 +978,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1001,7 +995,7 @@
         <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1012,7 +1006,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,7 +1017,7 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,7 +1028,7 @@
         <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1045,7 +1039,7 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1056,7 +1050,7 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,7 +1061,7 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,7 +1072,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1089,7 +1083,7 @@
         <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1100,7 +1094,7 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1111,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1122,7 +1116,7 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1133,7 +1127,7 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1144,7 +1138,7 @@
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1155,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1177,7 +1171,7 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,7 +1182,7 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1199,7 +1193,7 @@
         <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1210,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1221,7 +1215,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1232,7 +1226,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1243,7 +1237,7 @@
         <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,7 +1248,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,7 +1259,7 @@
         <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,70 +1270,70 @@
         <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
         <v>179</v>
@@ -1347,32 +1341,32 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>179</v>
@@ -1380,21 +1374,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>179</v>
@@ -1402,65 +1396,65 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
         <v>179</v>
@@ -1468,32 +1462,32 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
         <v>180</v>
@@ -1501,13 +1495,13 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,7 +1512,7 @@
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,7 +1523,7 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1540,7 +1534,7 @@
         <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,7 +1545,7 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,7 +1556,7 @@
         <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,7 +1567,7 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,7 +1578,7 @@
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,7 +1589,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,7 +1600,7 @@
         <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,7 +1611,7 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,7 +1622,7 @@
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,7 +1633,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1661,7 +1655,7 @@
         <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1672,18 +1666,18 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
         <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1694,7 +1688,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,7 +1699,7 @@
         <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1716,7 +1710,7 @@
         <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1727,7 +1721,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,18 +1732,18 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1760,7 +1754,7 @@
         <v>105</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,7 +1765,7 @@
         <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,18 +1776,18 @@
         <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,7 +1820,7 @@
         <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,18 +1831,18 @@
         <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,7 +1853,7 @@
         <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1870,7 +1864,7 @@
         <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1881,18 +1875,18 @@
         <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1903,7 +1897,7 @@
         <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,7 +1908,7 @@
         <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1925,7 +1919,7 @@
         <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1936,7 +1930,7 @@
         <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1947,7 +1941,7 @@
         <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1958,7 +1952,7 @@
         <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,7 +1963,7 @@
         <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1980,18 +1974,7 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>187</v>
-      </c>
-      <c r="B92" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
